--- a/document/Foreservation_plan.xlsx
+++ b/document/Foreservation_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_Intern2019\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A768AF87-0B0D-4370-A506-BC64D203CD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85CF0F4-51AD-4F01-9649-BA113E6232D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>구분</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>스토리보드</t>
-  </si>
-  <si>
-    <t>화면 구성 및 동작 전환 협의 및 스토리보드 작성</t>
   </si>
   <si>
     <t>DB 정책 기획</t>
@@ -96,17 +93,6 @@
     <t>뷰 list 작성 / 구현</t>
   </si>
   <si>
-    <t>개발 부문</t>
-  </si>
-  <si>
-    <t>개발회의</t>
-  </si>
-  <si>
-    <t>- 로직 타당성 검토 및 협의 
-- 개발 역량 타당성 검토 및 협의 
-- 추후 일정 협의</t>
-  </si>
-  <si>
     <t>UI구성</t>
   </si>
   <si>
@@ -171,6 +157,10 @@
   </si>
   <si>
     <t>기능 구현 범위 재설정</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 구성 및 동작 전환 구성 / 스토리보드 작성</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -303,7 +293,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,12 +309,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -639,9 +623,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -885,13 +866,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BC20"/>
+  <dimension ref="A1:BC19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BE11" sqref="BE11"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -913,79 +894,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="23.25" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK1" s="56"/>
-      <c r="AL1" s="56"/>
-      <c r="AM1" s="56"/>
-      <c r="AN1" s="56"/>
-      <c r="AO1" s="56"/>
-      <c r="AP1" s="56"/>
-      <c r="AQ1" s="56"/>
-      <c r="AR1" s="56"/>
-      <c r="AS1" s="56"/>
-      <c r="AT1" s="56"/>
-      <c r="AU1" s="56"/>
-      <c r="AV1" s="56"/>
-      <c r="AW1" s="56"/>
-      <c r="AX1" s="56"/>
-      <c r="AY1" s="56"/>
-      <c r="AZ1" s="56"/>
-      <c r="BA1" s="56"/>
-      <c r="BB1" s="56"/>
-      <c r="BC1" s="57"/>
+      <c r="E1" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="55"/>
+      <c r="AP1" s="55"/>
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="55"/>
+      <c r="AS1" s="55"/>
+      <c r="AT1" s="55"/>
+      <c r="AU1" s="55"/>
+      <c r="AV1" s="55"/>
+      <c r="AW1" s="55"/>
+      <c r="AX1" s="55"/>
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="55"/>
+      <c r="BB1" s="55"/>
+      <c r="BC1" s="56"/>
     </row>
     <row r="2" spans="1:55" ht="21" customHeight="1" thickBot="1">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
       <c r="E2" s="43">
         <v>1</v>
       </c>
@@ -1141,7 +1122,7 @@
       </c>
     </row>
     <row r="3" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="57" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="39" t="s">
@@ -1204,7 +1185,7 @@
       <c r="BC3" s="8"/>
     </row>
     <row r="4" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A4" s="54"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="23" t="s">
         <v>7</v>
       </c>
@@ -1265,7 +1246,7 @@
       <c r="BC4" s="8"/>
     </row>
     <row r="5" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A5" s="54"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="23" t="s">
         <v>9</v>
       </c>
@@ -1326,7 +1307,7 @@
       <c r="BC5" s="8"/>
     </row>
     <row r="6" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A6" s="54"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="23" t="s">
         <v>11</v>
       </c>
@@ -1387,12 +1368,12 @@
       <c r="BC6" s="8"/>
     </row>
     <row r="7" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A7" s="54"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="25"/>
@@ -1448,12 +1429,12 @@
       <c r="BC7" s="8"/>
     </row>
     <row r="8" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A8" s="54"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="27" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D8" s="29"/>
       <c r="E8" s="25"/>
@@ -1509,12 +1490,12 @@
       <c r="BC8" s="8"/>
     </row>
     <row r="9" spans="1:55" ht="26.4">
-      <c r="A9" s="54"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="28" t="s">
         <v>15</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>16</v>
       </c>
       <c r="D9" s="29"/>
       <c r="E9" s="25"/>
@@ -1524,7 +1505,7 @@
       <c r="I9" s="25"/>
       <c r="J9" s="49"/>
       <c r="K9" s="49"/>
-      <c r="L9" s="24"/>
+      <c r="L9" s="49"/>
       <c r="M9" s="24"/>
       <c r="N9" s="24"/>
       <c r="O9" s="24"/>
@@ -1572,10 +1553,10 @@
     <row r="10" spans="1:55" ht="21.75" customHeight="1">
       <c r="A10" s="22"/>
       <c r="B10" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="27" t="s">
         <v>17</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>18</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="25"/>
@@ -1583,7 +1564,7 @@
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
-      <c r="J10" s="49"/>
+      <c r="J10" s="24"/>
       <c r="K10" s="49"/>
       <c r="L10" s="49"/>
       <c r="M10" s="24"/>
@@ -1630,15 +1611,13 @@
       <c r="BB10" s="8"/>
       <c r="BC10" s="8"/>
     </row>
-    <row r="11" spans="1:55" ht="39.6">
-      <c r="A11" s="59" t="s">
-        <v>19</v>
-      </c>
+    <row r="11" spans="1:55" ht="21.75" customHeight="1">
+      <c r="A11" s="53"/>
       <c r="B11" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="50" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>35</v>
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="25"/>
@@ -1648,25 +1627,25 @@
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
       <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
       <c r="O11" s="24"/>
       <c r="P11" s="24"/>
       <c r="Q11" s="25"/>
       <c r="R11" s="25"/>
       <c r="S11" s="25"/>
       <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
+      <c r="U11" s="34"/>
       <c r="V11" s="25"/>
       <c r="W11" s="25"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="31"/>
-      <c r="AB11" s="31"/>
-      <c r="AC11" s="31"/>
-      <c r="AD11" s="31"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="33"/>
+      <c r="AD11" s="33"/>
       <c r="AE11" s="33"/>
       <c r="AF11" s="33"/>
       <c r="AG11" s="25"/>
@@ -1694,12 +1673,12 @@
       <c r="BC11" s="8"/>
     </row>
     <row r="12" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A12" s="54"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="25"/>
@@ -1718,13 +1697,13 @@
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
       <c r="T12" s="25"/>
-      <c r="U12" s="34"/>
+      <c r="U12" s="25"/>
       <c r="V12" s="25"/>
       <c r="W12" s="25"/>
       <c r="X12" s="25"/>
       <c r="Y12" s="25"/>
       <c r="Z12" s="33"/>
-      <c r="AA12" s="25"/>
+      <c r="AA12" s="33"/>
       <c r="AB12" s="33"/>
       <c r="AC12" s="33"/>
       <c r="AD12" s="33"/>
@@ -1755,16 +1734,16 @@
       <c r="BC12" s="8"/>
     </row>
     <row r="13" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A13" s="54"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>40</v>
+        <v>20</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>21</v>
       </c>
       <c r="D13" s="29"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
       <c r="G13" s="24"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -1780,10 +1759,10 @@
       <c r="S13" s="25"/>
       <c r="T13" s="25"/>
       <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
       <c r="Z13" s="33"/>
       <c r="AA13" s="33"/>
       <c r="AB13" s="33"/>
@@ -1791,21 +1770,21 @@
       <c r="AD13" s="33"/>
       <c r="AE13" s="33"/>
       <c r="AF13" s="33"/>
-      <c r="AG13" s="25"/>
-      <c r="AH13" s="25"/>
-      <c r="AI13" s="25"/>
+      <c r="AG13" s="36"/>
+      <c r="AH13" s="36"/>
+      <c r="AI13" s="36"/>
       <c r="AJ13" s="20"/>
-      <c r="AK13" s="10"/>
-      <c r="AL13" s="11"/>
-      <c r="AM13" s="11"/>
-      <c r="AN13" s="11"/>
-      <c r="AO13" s="11"/>
-      <c r="AP13" s="11"/>
-      <c r="AQ13" s="11"/>
-      <c r="AR13" s="11"/>
-      <c r="AS13" s="11"/>
-      <c r="AT13" s="11"/>
-      <c r="AU13" s="11"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="13"/>
+      <c r="AM13" s="13"/>
+      <c r="AN13" s="13"/>
+      <c r="AO13" s="13"/>
+      <c r="AP13" s="13"/>
+      <c r="AQ13" s="13"/>
+      <c r="AR13" s="13"/>
+      <c r="AS13" s="5"/>
+      <c r="AT13" s="13"/>
+      <c r="AU13" s="13"/>
       <c r="AV13" s="9"/>
       <c r="AW13" s="7"/>
       <c r="AX13" s="8"/>
@@ -1816,46 +1795,46 @@
       <c r="BC13" s="8"/>
     </row>
     <row r="14" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A14" s="54"/>
+      <c r="A14" s="58" t="s">
+        <v>22</v>
+      </c>
       <c r="B14" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C14" s="27"/>
       <c r="D14" s="29"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
       <c r="O14" s="24"/>
       <c r="P14" s="24"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="36"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="33"/>
-      <c r="AC14" s="33"/>
-      <c r="AD14" s="33"/>
-      <c r="AE14" s="33"/>
-      <c r="AF14" s="33"/>
-      <c r="AG14" s="36"/>
-      <c r="AH14" s="36"/>
-      <c r="AI14" s="36"/>
-      <c r="AJ14" s="20"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="37"/>
+      <c r="AB14" s="37"/>
+      <c r="AC14" s="37"/>
+      <c r="AD14" s="37"/>
+      <c r="AE14" s="37"/>
+      <c r="AF14" s="37"/>
+      <c r="AG14" s="37"/>
+      <c r="AH14" s="37"/>
+      <c r="AI14" s="37"/>
+      <c r="AJ14" s="21"/>
       <c r="AK14" s="13"/>
       <c r="AL14" s="13"/>
       <c r="AM14" s="13"/>
@@ -1867,34 +1846,34 @@
       <c r="AS14" s="5"/>
       <c r="AT14" s="13"/>
       <c r="AU14" s="13"/>
-      <c r="AV14" s="9"/>
+      <c r="AV14" s="5"/>
       <c r="AW14" s="7"/>
       <c r="AX14" s="8"/>
       <c r="AY14" s="8"/>
-      <c r="AZ14" s="9"/>
+      <c r="AZ14" s="5"/>
       <c r="BA14" s="7"/>
       <c r="BB14" s="8"/>
       <c r="BC14" s="8"/>
     </row>
     <row r="15" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A15" s="59" t="s">
-        <v>26</v>
-      </c>
+      <c r="A15" s="53"/>
       <c r="B15" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="27"/>
+        <v>24</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>25</v>
+      </c>
       <c r="D15" s="29"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
       <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
       <c r="Q15" s="24"/>
@@ -1902,32 +1881,32 @@
       <c r="S15" s="24"/>
       <c r="T15" s="24"/>
       <c r="U15" s="24"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="37"/>
-      <c r="AB15" s="37"/>
-      <c r="AC15" s="37"/>
-      <c r="AD15" s="37"/>
-      <c r="AE15" s="37"/>
-      <c r="AF15" s="37"/>
-      <c r="AG15" s="37"/>
-      <c r="AH15" s="37"/>
-      <c r="AI15" s="37"/>
-      <c r="AJ15" s="21"/>
-      <c r="AK15" s="13"/>
-      <c r="AL15" s="13"/>
-      <c r="AM15" s="13"/>
-      <c r="AN15" s="13"/>
-      <c r="AO15" s="13"/>
-      <c r="AP15" s="13"/>
-      <c r="AQ15" s="13"/>
-      <c r="AR15" s="13"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="24"/>
+      <c r="AD15" s="24"/>
+      <c r="AE15" s="24"/>
+      <c r="AF15" s="24"/>
+      <c r="AG15" s="24"/>
+      <c r="AH15" s="24"/>
+      <c r="AI15" s="24"/>
+      <c r="AJ15" s="17"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="5"/>
+      <c r="AQ15" s="5"/>
+      <c r="AR15" s="5"/>
       <c r="AS15" s="5"/>
-      <c r="AT15" s="13"/>
-      <c r="AU15" s="13"/>
+      <c r="AT15" s="5"/>
+      <c r="AU15" s="5"/>
       <c r="AV15" s="5"/>
       <c r="AW15" s="7"/>
       <c r="AX15" s="8"/>
@@ -1938,24 +1917,26 @@
       <c r="BC15" s="8"/>
     </row>
     <row r="16" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A16" s="54"/>
+      <c r="A16" s="58" t="s">
+        <v>26</v>
+      </c>
       <c r="B16" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="35" t="s">
         <v>28</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>29</v>
       </c>
       <c r="D16" s="29"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
       <c r="Q16" s="24"/>
@@ -1998,15 +1979,13 @@
       <c r="BB16" s="8"/>
       <c r="BC16" s="8"/>
     </row>
-    <row r="17" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A17" s="59" t="s">
+    <row r="17" spans="1:55" ht="26.4">
+      <c r="A17" s="53"/>
+      <c r="B17" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="28" t="s">
         <v>30</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>32</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="24"/>
@@ -2061,15 +2040,15 @@
       <c r="BB17" s="8"/>
       <c r="BC17" s="8"/>
     </row>
-    <row r="18" spans="1:55" ht="26.4">
-      <c r="A18" s="54"/>
+    <row r="18" spans="1:55" ht="21.75" customHeight="1">
+      <c r="A18" s="53"/>
       <c r="B18" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="29"/>
+        <v>26</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="22"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
@@ -2110,141 +2089,80 @@
       <c r="AP18" s="5"/>
       <c r="AQ18" s="5"/>
       <c r="AR18" s="5"/>
-      <c r="AS18" s="5"/>
+      <c r="AS18" s="6"/>
       <c r="AT18" s="5"/>
       <c r="AU18" s="5"/>
-      <c r="AV18" s="5"/>
+      <c r="AV18" s="6"/>
       <c r="AW18" s="7"/>
       <c r="AX18" s="8"/>
       <c r="AY18" s="8"/>
-      <c r="AZ18" s="5"/>
+      <c r="AZ18" s="6"/>
       <c r="BA18" s="7"/>
       <c r="BB18" s="8"/>
       <c r="BC18" s="8"/>
     </row>
-    <row r="19" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A19" s="54"/>
-      <c r="B19" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="24"/>
-      <c r="Z19" s="24"/>
-      <c r="AA19" s="24"/>
-      <c r="AB19" s="24"/>
-      <c r="AC19" s="24"/>
-      <c r="AD19" s="24"/>
-      <c r="AE19" s="24"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="24"/>
-      <c r="AH19" s="24"/>
-      <c r="AI19" s="24"/>
-      <c r="AJ19" s="17"/>
-      <c r="AK19" s="5"/>
-      <c r="AL19" s="5"/>
-      <c r="AM19" s="5"/>
-      <c r="AN19" s="5"/>
-      <c r="AO19" s="5"/>
-      <c r="AP19" s="5"/>
-      <c r="AQ19" s="5"/>
-      <c r="AR19" s="5"/>
-      <c r="AS19" s="6"/>
-      <c r="AT19" s="5"/>
-      <c r="AU19" s="5"/>
-      <c r="AV19" s="6"/>
-      <c r="AW19" s="7"/>
-      <c r="AX19" s="8"/>
-      <c r="AY19" s="8"/>
-      <c r="AZ19" s="6"/>
-      <c r="BA19" s="7"/>
-      <c r="BB19" s="8"/>
-      <c r="BC19" s="8"/>
-    </row>
-    <row r="20" spans="1:55" ht="33" customHeight="1">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
-      <c r="AI20" s="4"/>
-      <c r="AJ20" s="4"/>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="4"/>
-      <c r="AM20" s="4"/>
-      <c r="AN20" s="4"/>
-      <c r="AO20" s="4"/>
-      <c r="AP20" s="4"/>
-      <c r="AQ20" s="4"/>
-      <c r="AR20" s="4"/>
-      <c r="AS20" s="4"/>
-      <c r="AT20" s="4"/>
-      <c r="AU20" s="4"/>
-      <c r="AV20" s="4"/>
-      <c r="AW20" s="4"/>
-      <c r="AX20" s="4"/>
-      <c r="AY20" s="4"/>
-      <c r="AZ20" s="4"/>
-      <c r="BA20" s="4"/>
-      <c r="BB20" s="4"/>
-      <c r="BC20" s="4"/>
+    <row r="19" spans="1:55" ht="33" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="4"/>
+      <c r="AP19" s="4"/>
+      <c r="AQ19" s="4"/>
+      <c r="AR19" s="4"/>
+      <c r="AS19" s="4"/>
+      <c r="AT19" s="4"/>
+      <c r="AU19" s="4"/>
+      <c r="AV19" s="4"/>
+      <c r="AW19" s="4"/>
+      <c r="AX19" s="4"/>
+      <c r="AY19" s="4"/>
+      <c r="AZ19" s="4"/>
+      <c r="BA19" s="4"/>
+      <c r="BB19" s="4"/>
+      <c r="BC19" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>

--- a/document/Foreservation_plan.xlsx
+++ b/document/Foreservation_plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_Intern2019\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85CF0F4-51AD-4F01-9649-BA113E6232D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB0DAC8-04C7-4FC5-AC77-D396159D1825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>구분</t>
   </si>
@@ -87,12 +87,6 @@
 - DB 정규화</t>
   </si>
   <si>
-    <t>뷰</t>
-  </si>
-  <si>
-    <t>뷰 list 작성 / 구현</t>
-  </si>
-  <si>
     <t>UI구성</t>
   </si>
   <si>
@@ -161,6 +155,18 @@
   </si>
   <si>
     <t>화면 구성 및 동작 전환 구성 / 스토리보드 작성</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>뷰 list 작성</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>뷰 구현</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>뷰</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -313,7 +319,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -469,11 +475,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -624,6 +654,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -633,9 +669,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -648,7 +681,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -866,13 +908,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BC19"/>
+  <dimension ref="A1:BC20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomRight" activeCell="BE8" sqref="BE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -894,79 +936,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="23.25" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="55"/>
-      <c r="AP1" s="55"/>
-      <c r="AQ1" s="55"/>
-      <c r="AR1" s="55"/>
-      <c r="AS1" s="55"/>
-      <c r="AT1" s="55"/>
-      <c r="AU1" s="55"/>
-      <c r="AV1" s="55"/>
-      <c r="AW1" s="55"/>
-      <c r="AX1" s="55"/>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="55"/>
-      <c r="BB1" s="55"/>
-      <c r="BC1" s="56"/>
+      <c r="E1" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="56"/>
+      <c r="AQ1" s="56"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="56"/>
+      <c r="AU1" s="56"/>
+      <c r="AV1" s="56"/>
+      <c r="AW1" s="56"/>
+      <c r="AX1" s="56"/>
+      <c r="AY1" s="56"/>
+      <c r="AZ1" s="56"/>
+      <c r="BA1" s="56"/>
+      <c r="BB1" s="56"/>
+      <c r="BC1" s="57"/>
     </row>
     <row r="2" spans="1:55" ht="21" customHeight="1" thickBot="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
       <c r="E2" s="43">
         <v>1</v>
       </c>
@@ -1122,7 +1164,7 @@
       </c>
     </row>
     <row r="3" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="58" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="39" t="s">
@@ -1185,7 +1227,7 @@
       <c r="BC3" s="8"/>
     </row>
     <row r="4" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A4" s="53"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="23" t="s">
         <v>7</v>
       </c>
@@ -1246,7 +1288,7 @@
       <c r="BC4" s="8"/>
     </row>
     <row r="5" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A5" s="53"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="23" t="s">
         <v>9</v>
       </c>
@@ -1307,7 +1349,7 @@
       <c r="BC5" s="8"/>
     </row>
     <row r="6" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A6" s="53"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="23" t="s">
         <v>11</v>
       </c>
@@ -1368,12 +1410,12 @@
       <c r="BC6" s="8"/>
     </row>
     <row r="7" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A7" s="53"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="25"/>
@@ -1429,12 +1471,12 @@
       <c r="BC7" s="8"/>
     </row>
     <row r="8" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A8" s="53"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" s="29"/>
       <c r="E8" s="25"/>
@@ -1490,7 +1532,7 @@
       <c r="BC8" s="8"/>
     </row>
     <row r="9" spans="1:55" ht="26.4">
-      <c r="A9" s="53"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="23" t="s">
         <v>14</v>
       </c>
@@ -1551,12 +1593,12 @@
       <c r="BC9" s="8"/>
     </row>
     <row r="10" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="27" t="s">
-        <v>16</v>
+      <c r="A10" s="61"/>
+      <c r="B10" s="59" t="s">
+        <v>39</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="25"/>
@@ -1612,12 +1654,10 @@
       <c r="BC10" s="8"/>
     </row>
     <row r="11" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A11" s="53"/>
-      <c r="B11" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>35</v>
+      <c r="A11" s="62"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="25"/>
@@ -1627,7 +1667,7 @@
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
       <c r="K11" s="24"/>
-      <c r="L11" s="49"/>
+      <c r="L11" s="24"/>
       <c r="M11" s="49"/>
       <c r="N11" s="49"/>
       <c r="O11" s="24"/>
@@ -1636,16 +1676,16 @@
       <c r="R11" s="25"/>
       <c r="S11" s="25"/>
       <c r="T11" s="25"/>
-      <c r="U11" s="34"/>
+      <c r="U11" s="25"/>
       <c r="V11" s="25"/>
       <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="33"/>
-      <c r="AD11" s="33"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="31"/>
+      <c r="AB11" s="31"/>
+      <c r="AC11" s="31"/>
+      <c r="AD11" s="31"/>
       <c r="AE11" s="33"/>
       <c r="AF11" s="33"/>
       <c r="AG11" s="25"/>
@@ -1673,12 +1713,12 @@
       <c r="BC11" s="8"/>
     </row>
     <row r="12" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A12" s="53"/>
+      <c r="A12" s="62"/>
       <c r="B12" s="23" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="25"/>
@@ -1688,22 +1728,22 @@
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
       <c r="K12" s="24"/>
-      <c r="L12" s="49"/>
+      <c r="L12" s="24"/>
       <c r="M12" s="49"/>
       <c r="N12" s="49"/>
-      <c r="O12" s="24"/>
+      <c r="O12" s="49"/>
       <c r="P12" s="24"/>
       <c r="Q12" s="25"/>
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
       <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
+      <c r="U12" s="34"/>
       <c r="V12" s="25"/>
       <c r="W12" s="25"/>
       <c r="X12" s="25"/>
       <c r="Y12" s="25"/>
       <c r="Z12" s="33"/>
-      <c r="AA12" s="33"/>
+      <c r="AA12" s="25"/>
       <c r="AB12" s="33"/>
       <c r="AC12" s="33"/>
       <c r="AD12" s="33"/>
@@ -1734,35 +1774,35 @@
       <c r="BC12" s="8"/>
     </row>
     <row r="13" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A13" s="53"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>34</v>
       </c>
       <c r="D13" s="29"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
       <c r="G13" s="24"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
       <c r="K13" s="24"/>
-      <c r="L13" s="49"/>
+      <c r="L13" s="24"/>
       <c r="M13" s="49"/>
       <c r="N13" s="49"/>
-      <c r="O13" s="24"/>
+      <c r="O13" s="49"/>
       <c r="P13" s="24"/>
       <c r="Q13" s="25"/>
       <c r="R13" s="25"/>
       <c r="S13" s="25"/>
       <c r="T13" s="25"/>
       <c r="U13" s="25"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="36"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
       <c r="Z13" s="33"/>
       <c r="AA13" s="33"/>
       <c r="AB13" s="33"/>
@@ -1770,21 +1810,21 @@
       <c r="AD13" s="33"/>
       <c r="AE13" s="33"/>
       <c r="AF13" s="33"/>
-      <c r="AG13" s="36"/>
-      <c r="AH13" s="36"/>
-      <c r="AI13" s="36"/>
+      <c r="AG13" s="25"/>
+      <c r="AH13" s="25"/>
+      <c r="AI13" s="25"/>
       <c r="AJ13" s="20"/>
-      <c r="AK13" s="13"/>
-      <c r="AL13" s="13"/>
-      <c r="AM13" s="13"/>
-      <c r="AN13" s="13"/>
-      <c r="AO13" s="13"/>
-      <c r="AP13" s="13"/>
-      <c r="AQ13" s="13"/>
-      <c r="AR13" s="13"/>
-      <c r="AS13" s="5"/>
-      <c r="AT13" s="13"/>
-      <c r="AU13" s="13"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="11"/>
+      <c r="AO13" s="11"/>
+      <c r="AP13" s="11"/>
+      <c r="AQ13" s="11"/>
+      <c r="AR13" s="11"/>
+      <c r="AS13" s="11"/>
+      <c r="AT13" s="11"/>
+      <c r="AU13" s="11"/>
       <c r="AV13" s="9"/>
       <c r="AW13" s="7"/>
       <c r="AX13" s="8"/>
@@ -1795,46 +1835,46 @@
       <c r="BC13" s="8"/>
     </row>
     <row r="14" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A14" s="58" t="s">
-        <v>22</v>
-      </c>
+      <c r="A14" s="58"/>
       <c r="B14" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="27"/>
+        <v>18</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>19</v>
+      </c>
       <c r="D14" s="29"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
       <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
       <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="37"/>
-      <c r="AA14" s="37"/>
-      <c r="AB14" s="37"/>
-      <c r="AC14" s="37"/>
-      <c r="AD14" s="37"/>
-      <c r="AE14" s="37"/>
-      <c r="AF14" s="37"/>
-      <c r="AG14" s="37"/>
-      <c r="AH14" s="37"/>
-      <c r="AI14" s="37"/>
-      <c r="AJ14" s="21"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="33"/>
+      <c r="AB14" s="33"/>
+      <c r="AC14" s="33"/>
+      <c r="AD14" s="33"/>
+      <c r="AE14" s="33"/>
+      <c r="AF14" s="33"/>
+      <c r="AG14" s="36"/>
+      <c r="AH14" s="36"/>
+      <c r="AI14" s="36"/>
+      <c r="AJ14" s="20"/>
       <c r="AK14" s="13"/>
       <c r="AL14" s="13"/>
       <c r="AM14" s="13"/>
@@ -1846,34 +1886,34 @@
       <c r="AS14" s="5"/>
       <c r="AT14" s="13"/>
       <c r="AU14" s="13"/>
-      <c r="AV14" s="5"/>
+      <c r="AV14" s="9"/>
       <c r="AW14" s="7"/>
       <c r="AX14" s="8"/>
       <c r="AY14" s="8"/>
-      <c r="AZ14" s="5"/>
+      <c r="AZ14" s="9"/>
       <c r="BA14" s="7"/>
       <c r="BB14" s="8"/>
       <c r="BC14" s="8"/>
     </row>
     <row r="15" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A15" s="53"/>
+      <c r="A15" s="51" t="s">
+        <v>20</v>
+      </c>
       <c r="B15" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C15" s="27"/>
       <c r="D15" s="29"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
       <c r="G15" s="24"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
       <c r="Q15" s="24"/>
@@ -1881,32 +1921,32 @@
       <c r="S15" s="24"/>
       <c r="T15" s="24"/>
       <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="24"/>
-      <c r="AD15" s="24"/>
-      <c r="AE15" s="24"/>
-      <c r="AF15" s="24"/>
-      <c r="AG15" s="24"/>
-      <c r="AH15" s="24"/>
-      <c r="AI15" s="24"/>
-      <c r="AJ15" s="17"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
-      <c r="AM15" s="5"/>
-      <c r="AN15" s="5"/>
-      <c r="AO15" s="5"/>
-      <c r="AP15" s="5"/>
-      <c r="AQ15" s="5"/>
-      <c r="AR15" s="5"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="37"/>
+      <c r="AB15" s="37"/>
+      <c r="AC15" s="37"/>
+      <c r="AD15" s="37"/>
+      <c r="AE15" s="37"/>
+      <c r="AF15" s="37"/>
+      <c r="AG15" s="37"/>
+      <c r="AH15" s="37"/>
+      <c r="AI15" s="37"/>
+      <c r="AJ15" s="21"/>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="13"/>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="13"/>
+      <c r="AO15" s="13"/>
+      <c r="AP15" s="13"/>
+      <c r="AQ15" s="13"/>
+      <c r="AR15" s="13"/>
       <c r="AS15" s="5"/>
-      <c r="AT15" s="5"/>
-      <c r="AU15" s="5"/>
+      <c r="AT15" s="13"/>
+      <c r="AU15" s="13"/>
       <c r="AV15" s="5"/>
       <c r="AW15" s="7"/>
       <c r="AX15" s="8"/>
@@ -1917,26 +1957,24 @@
       <c r="BC15" s="8"/>
     </row>
     <row r="16" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A16" s="58" t="s">
-        <v>26</v>
-      </c>
+      <c r="A16" s="50"/>
       <c r="B16" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>23</v>
       </c>
       <c r="D16" s="29"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
       <c r="Q16" s="24"/>
@@ -1979,13 +2017,15 @@
       <c r="BB16" s="8"/>
       <c r="BC16" s="8"/>
     </row>
-    <row r="17" spans="1:55" ht="26.4">
-      <c r="A17" s="53"/>
+    <row r="17" spans="1:55" ht="21.75" customHeight="1">
+      <c r="A17" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="B17" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>26</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="24"/>
@@ -2040,15 +2080,15 @@
       <c r="BB17" s="8"/>
       <c r="BC17" s="8"/>
     </row>
-    <row r="18" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A18" s="53"/>
+    <row r="18" spans="1:55" ht="26.4">
+      <c r="A18" s="50"/>
       <c r="B18" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="22"/>
+        <v>27</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="29"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
@@ -2089,87 +2129,149 @@
       <c r="AP18" s="5"/>
       <c r="AQ18" s="5"/>
       <c r="AR18" s="5"/>
-      <c r="AS18" s="6"/>
+      <c r="AS18" s="5"/>
       <c r="AT18" s="5"/>
       <c r="AU18" s="5"/>
-      <c r="AV18" s="6"/>
+      <c r="AV18" s="5"/>
       <c r="AW18" s="7"/>
       <c r="AX18" s="8"/>
       <c r="AY18" s="8"/>
-      <c r="AZ18" s="6"/>
+      <c r="AZ18" s="5"/>
       <c r="BA18" s="7"/>
       <c r="BB18" s="8"/>
       <c r="BC18" s="8"/>
     </row>
-    <row r="19" spans="1:55" ht="33" customHeight="1">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-      <c r="AI19" s="4"/>
-      <c r="AJ19" s="4"/>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="4"/>
-      <c r="AM19" s="4"/>
-      <c r="AN19" s="4"/>
-      <c r="AO19" s="4"/>
-      <c r="AP19" s="4"/>
-      <c r="AQ19" s="4"/>
-      <c r="AR19" s="4"/>
-      <c r="AS19" s="4"/>
-      <c r="AT19" s="4"/>
-      <c r="AU19" s="4"/>
-      <c r="AV19" s="4"/>
-      <c r="AW19" s="4"/>
-      <c r="AX19" s="4"/>
-      <c r="AY19" s="4"/>
-      <c r="AZ19" s="4"/>
-      <c r="BA19" s="4"/>
-      <c r="BB19" s="4"/>
-      <c r="BC19" s="4"/>
+    <row r="19" spans="1:55" ht="21.75" customHeight="1">
+      <c r="A19" s="50"/>
+      <c r="B19" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="24"/>
+      <c r="AA19" s="24"/>
+      <c r="AB19" s="24"/>
+      <c r="AC19" s="24"/>
+      <c r="AD19" s="24"/>
+      <c r="AE19" s="24"/>
+      <c r="AF19" s="24"/>
+      <c r="AG19" s="24"/>
+      <c r="AH19" s="24"/>
+      <c r="AI19" s="24"/>
+      <c r="AJ19" s="17"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="5"/>
+      <c r="AO19" s="5"/>
+      <c r="AP19" s="5"/>
+      <c r="AQ19" s="5"/>
+      <c r="AR19" s="5"/>
+      <c r="AS19" s="6"/>
+      <c r="AT19" s="5"/>
+      <c r="AU19" s="5"/>
+      <c r="AV19" s="6"/>
+      <c r="AW19" s="7"/>
+      <c r="AX19" s="8"/>
+      <c r="AY19" s="8"/>
+      <c r="AZ19" s="6"/>
+      <c r="BA19" s="7"/>
+      <c r="BB19" s="8"/>
+      <c r="BC19" s="8"/>
+    </row>
+    <row r="20" spans="1:55" ht="33" customHeight="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="4"/>
+      <c r="AP20" s="4"/>
+      <c r="AQ20" s="4"/>
+      <c r="AR20" s="4"/>
+      <c r="AS20" s="4"/>
+      <c r="AT20" s="4"/>
+      <c r="AU20" s="4"/>
+      <c r="AV20" s="4"/>
+      <c r="AW20" s="4"/>
+      <c r="AX20" s="4"/>
+      <c r="AY20" s="4"/>
+      <c r="AZ20" s="4"/>
+      <c r="BA20" s="4"/>
+      <c r="BB20" s="4"/>
+      <c r="BC20" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
+  <mergeCells count="11">
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:AI1"/>
     <mergeCell ref="AJ1:BC1"/>
     <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A10:A14"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/document/Foreservation_plan.xlsx
+++ b/document/Foreservation_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_Intern2019\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB0DAC8-04C7-4FC5-AC77-D396159D1825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FDA731-DD52-4169-8FF1-285E38B580BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -654,12 +654,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -669,6 +663,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -679,6 +676,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -911,10 +911,10 @@
   <dimension ref="A1:BC20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BE8" sqref="BE8"/>
+      <selection pane="bottomRight" activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -936,79 +936,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="23.25" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="55" t="s">
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="53"/>
+      <c r="AE1" s="53"/>
+      <c r="AF1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" s="56"/>
-      <c r="AL1" s="56"/>
-      <c r="AM1" s="56"/>
-      <c r="AN1" s="56"/>
-      <c r="AO1" s="56"/>
-      <c r="AP1" s="56"/>
-      <c r="AQ1" s="56"/>
-      <c r="AR1" s="56"/>
-      <c r="AS1" s="56"/>
-      <c r="AT1" s="56"/>
-      <c r="AU1" s="56"/>
-      <c r="AV1" s="56"/>
-      <c r="AW1" s="56"/>
-      <c r="AX1" s="56"/>
-      <c r="AY1" s="56"/>
-      <c r="AZ1" s="56"/>
-      <c r="BA1" s="56"/>
-      <c r="BB1" s="56"/>
-      <c r="BC1" s="57"/>
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="55"/>
+      <c r="AP1" s="55"/>
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="55"/>
+      <c r="AS1" s="55"/>
+      <c r="AT1" s="55"/>
+      <c r="AU1" s="55"/>
+      <c r="AV1" s="55"/>
+      <c r="AW1" s="55"/>
+      <c r="AX1" s="55"/>
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="55"/>
+      <c r="BB1" s="55"/>
+      <c r="BC1" s="56"/>
     </row>
     <row r="2" spans="1:55" ht="21" customHeight="1" thickBot="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
       <c r="E2" s="43">
         <v>1</v>
       </c>
@@ -1164,7 +1164,7 @@
       </c>
     </row>
     <row r="3" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="57" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="39" t="s">
@@ -1227,7 +1227,7 @@
       <c r="BC3" s="8"/>
     </row>
     <row r="4" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A4" s="50"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="23" t="s">
         <v>7</v>
       </c>
@@ -1288,7 +1288,7 @@
       <c r="BC4" s="8"/>
     </row>
     <row r="5" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A5" s="50"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="23" t="s">
         <v>9</v>
       </c>
@@ -1349,7 +1349,7 @@
       <c r="BC5" s="8"/>
     </row>
     <row r="6" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A6" s="50"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="23" t="s">
         <v>11</v>
       </c>
@@ -1410,7 +1410,7 @@
       <c r="BC6" s="8"/>
     </row>
     <row r="7" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A7" s="50"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="23" t="s">
         <v>13</v>
       </c>
@@ -1471,7 +1471,7 @@
       <c r="BC7" s="8"/>
     </row>
     <row r="8" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A8" s="50"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="27" t="s">
         <v>30</v>
       </c>
@@ -1532,7 +1532,7 @@
       <c r="BC8" s="8"/>
     </row>
     <row r="9" spans="1:55" ht="26.4">
-      <c r="A9" s="50"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="23" t="s">
         <v>14</v>
       </c>
@@ -1670,10 +1670,10 @@
       <c r="L11" s="24"/>
       <c r="M11" s="49"/>
       <c r="N11" s="49"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
       <c r="S11" s="25"/>
       <c r="T11" s="25"/>
       <c r="U11" s="25"/>
@@ -1732,10 +1732,10 @@
       <c r="M12" s="49"/>
       <c r="N12" s="49"/>
       <c r="O12" s="49"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
       <c r="T12" s="25"/>
       <c r="U12" s="34"/>
       <c r="V12" s="25"/>
@@ -1793,10 +1793,10 @@
       <c r="M13" s="49"/>
       <c r="N13" s="49"/>
       <c r="O13" s="49"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
       <c r="T13" s="25"/>
       <c r="U13" s="25"/>
       <c r="V13" s="25"/>
@@ -1835,7 +1835,7 @@
       <c r="BC13" s="8"/>
     </row>
     <row r="14" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A14" s="58"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="23" t="s">
         <v>18</v>
       </c>
@@ -1851,13 +1851,13 @@
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
       <c r="L14" s="24"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
       <c r="P14" s="24"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
       <c r="T14" s="25"/>
       <c r="U14" s="25"/>
       <c r="V14" s="36"/>
@@ -1896,7 +1896,7 @@
       <c r="BC14" s="8"/>
     </row>
     <row r="15" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="58" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="23" t="s">
@@ -1957,7 +1957,7 @@
       <c r="BC15" s="8"/>
     </row>
     <row r="16" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A16" s="50"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="23" t="s">
         <v>22</v>
       </c>
@@ -2018,7 +2018,7 @@
       <c r="BC16" s="8"/>
     </row>
     <row r="17" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="58" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="23" t="s">
@@ -2081,7 +2081,7 @@
       <c r="BC17" s="8"/>
     </row>
     <row r="18" spans="1:55" ht="26.4">
-      <c r="A18" s="50"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="23" t="s">
         <v>27</v>
       </c>
@@ -2142,7 +2142,7 @@
       <c r="BC18" s="8"/>
     </row>
     <row r="19" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A19" s="50"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="23" t="s">
         <v>24</v>
       </c>
@@ -2261,17 +2261,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:AI1"/>
-    <mergeCell ref="AJ1:BC1"/>
-    <mergeCell ref="A3:A9"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A10:A14"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:AI1"/>
+    <mergeCell ref="AJ1:BC1"/>
+    <mergeCell ref="A3:A9"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/document/Foreservation_plan.xlsx
+++ b/document/Foreservation_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_Intern2019\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FDA731-DD52-4169-8FF1-285E38B580BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F345739-3435-4961-ABF6-7BADEB2B07BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,6 +315,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -606,9 +612,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -654,18 +657,36 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -675,23 +696,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -911,10 +923,10 @@
   <dimension ref="A1:BC20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N16" sqref="N16"/>
+      <selection pane="bottomRight" activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -925,181 +937,182 @@
     <col min="4" max="4" width="7.5546875" hidden="1" customWidth="1"/>
     <col min="5" max="9" width="3.5546875" customWidth="1"/>
     <col min="10" max="10" width="4" customWidth="1"/>
-    <col min="11" max="21" width="3.5546875" customWidth="1"/>
-    <col min="22" max="37" width="3.5546875" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="4" hidden="1" customWidth="1"/>
-    <col min="39" max="44" width="3.5546875" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="4" hidden="1" customWidth="1"/>
-    <col min="46" max="51" width="3.5546875" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="4" hidden="1" customWidth="1"/>
-    <col min="53" max="55" width="3.5546875" hidden="1" customWidth="1"/>
+    <col min="11" max="19" width="3.5546875" customWidth="1"/>
+    <col min="20" max="20" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="37" width="3.5546875" customWidth="1"/>
+    <col min="38" max="38" width="4" customWidth="1"/>
+    <col min="39" max="44" width="3.5546875" customWidth="1"/>
+    <col min="45" max="45" width="4" customWidth="1"/>
+    <col min="46" max="51" width="3.5546875" customWidth="1"/>
+    <col min="52" max="52" width="4" customWidth="1"/>
+    <col min="53" max="55" width="3.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="23.25" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="54" t="s">
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="55"/>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="55"/>
-      <c r="AP1" s="55"/>
-      <c r="AQ1" s="55"/>
-      <c r="AR1" s="55"/>
-      <c r="AS1" s="55"/>
-      <c r="AT1" s="55"/>
-      <c r="AU1" s="55"/>
-      <c r="AV1" s="55"/>
-      <c r="AW1" s="55"/>
-      <c r="AX1" s="55"/>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="55"/>
-      <c r="BB1" s="55"/>
-      <c r="BC1" s="56"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="60"/>
+      <c r="AM1" s="60"/>
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="60"/>
+      <c r="AQ1" s="60"/>
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="60"/>
+      <c r="AU1" s="60"/>
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60"/>
+      <c r="AY1" s="60"/>
+      <c r="AZ1" s="60"/>
+      <c r="BA1" s="60"/>
+      <c r="BB1" s="60"/>
+      <c r="BC1" s="61"/>
     </row>
     <row r="2" spans="1:55" ht="21" customHeight="1" thickBot="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="43">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="42">
         <v>1</v>
       </c>
-      <c r="F2" s="44">
+      <c r="F2" s="43">
         <v>2</v>
       </c>
-      <c r="G2" s="43">
+      <c r="G2" s="42">
         <v>3</v>
       </c>
-      <c r="H2" s="45">
+      <c r="H2" s="44">
         <v>4</v>
       </c>
-      <c r="I2" s="45">
+      <c r="I2" s="44">
         <v>5</v>
       </c>
-      <c r="J2" s="45">
+      <c r="J2" s="44">
         <v>6</v>
       </c>
-      <c r="K2" s="45">
+      <c r="K2" s="44">
         <v>7</v>
       </c>
-      <c r="L2" s="45">
+      <c r="L2" s="44">
         <v>8</v>
       </c>
-      <c r="M2" s="44">
+      <c r="M2" s="43">
         <v>9</v>
       </c>
-      <c r="N2" s="43">
+      <c r="N2" s="42">
         <v>10</v>
       </c>
-      <c r="O2" s="45">
+      <c r="O2" s="44">
         <v>11</v>
       </c>
-      <c r="P2" s="45">
+      <c r="P2" s="44">
         <v>12</v>
       </c>
-      <c r="Q2" s="45">
+      <c r="Q2" s="44">
         <v>13</v>
       </c>
-      <c r="R2" s="45">
+      <c r="R2" s="44">
         <v>14</v>
       </c>
-      <c r="S2" s="45">
+      <c r="S2" s="44">
         <v>15</v>
       </c>
-      <c r="T2" s="44">
+      <c r="T2" s="43">
         <v>16</v>
       </c>
-      <c r="U2" s="43">
+      <c r="U2" s="42">
         <v>17</v>
       </c>
-      <c r="V2" s="45">
+      <c r="V2" s="44">
         <v>18</v>
       </c>
-      <c r="W2" s="45">
+      <c r="W2" s="44">
         <v>19</v>
       </c>
-      <c r="X2" s="45">
+      <c r="X2" s="44">
         <v>20</v>
       </c>
-      <c r="Y2" s="45">
+      <c r="Y2" s="44">
         <v>21</v>
       </c>
-      <c r="Z2" s="45">
+      <c r="Z2" s="44">
         <v>22</v>
       </c>
-      <c r="AA2" s="44">
+      <c r="AA2" s="43">
         <v>23</v>
       </c>
-      <c r="AB2" s="43">
+      <c r="AB2" s="42">
         <v>24</v>
       </c>
-      <c r="AC2" s="45">
+      <c r="AC2" s="44">
         <v>25</v>
       </c>
-      <c r="AD2" s="45">
+      <c r="AD2" s="44">
         <v>26</v>
       </c>
-      <c r="AE2" s="45">
+      <c r="AE2" s="44">
         <v>27</v>
       </c>
-      <c r="AF2" s="45">
+      <c r="AF2" s="44">
         <v>28</v>
       </c>
-      <c r="AG2" s="45">
+      <c r="AG2" s="44">
         <v>29</v>
       </c>
-      <c r="AH2" s="44">
+      <c r="AH2" s="43">
         <v>30</v>
       </c>
-      <c r="AI2" s="43">
+      <c r="AI2" s="42">
         <v>31</v>
       </c>
       <c r="AJ2" s="16">
@@ -1167,44 +1180,44 @@
       <c r="A3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="39"/>
       <c r="AJ3" s="17"/>
       <c r="AK3" s="5"/>
       <c r="AL3" s="5"/>
@@ -1227,7 +1240,7 @@
       <c r="BC3" s="8"/>
     </row>
     <row r="4" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A4" s="53"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="23" t="s">
         <v>7</v>
       </c>
@@ -1237,9 +1250,9 @@
       <c r="D4" s="22"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
       <c r="J4" s="24"/>
       <c r="K4" s="24"/>
       <c r="L4" s="24"/>
@@ -1288,7 +1301,7 @@
       <c r="BC4" s="8"/>
     </row>
     <row r="5" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A5" s="53"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="23" t="s">
         <v>9</v>
       </c>
@@ -1300,8 +1313,8 @@
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
       <c r="K5" s="25"/>
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
@@ -1349,7 +1362,7 @@
       <c r="BC5" s="8"/>
     </row>
     <row r="6" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A6" s="53"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="23" t="s">
         <v>11</v>
       </c>
@@ -1361,8 +1374,8 @@
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
       <c r="K6" s="25"/>
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
@@ -1410,7 +1423,7 @@
       <c r="BC6" s="8"/>
     </row>
     <row r="7" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A7" s="53"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="23" t="s">
         <v>13</v>
       </c>
@@ -1422,8 +1435,8 @@
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
       <c r="K7" s="25"/>
       <c r="L7" s="26"/>
       <c r="M7" s="26"/>
@@ -1471,7 +1484,7 @@
       <c r="BC7" s="8"/>
     </row>
     <row r="8" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A8" s="53"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="27" t="s">
         <v>30</v>
       </c>
@@ -1483,8 +1496,8 @@
       <c r="F8" s="25"/>
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
@@ -1532,7 +1545,7 @@
       <c r="BC8" s="8"/>
     </row>
     <row r="9" spans="1:55" ht="26.4">
-      <c r="A9" s="53"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="23" t="s">
         <v>14</v>
       </c>
@@ -1545,9 +1558,9 @@
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
       <c r="I9" s="25"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
       <c r="M9" s="24"/>
       <c r="N9" s="24"/>
       <c r="O9" s="24"/>
@@ -1593,8 +1606,8 @@
       <c r="BC9" s="8"/>
     </row>
     <row r="10" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A10" s="61"/>
-      <c r="B10" s="59" t="s">
+      <c r="A10" s="55"/>
+      <c r="B10" s="53" t="s">
         <v>39</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -1607,8 +1620,8 @@
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
       <c r="M10" s="24"/>
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
@@ -1654,8 +1667,8 @@
       <c r="BC10" s="8"/>
     </row>
     <row r="11" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A11" s="62"/>
-      <c r="B11" s="60"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="27" t="s">
         <v>38</v>
       </c>
@@ -1668,12 +1681,12 @@
       <c r="J11" s="24"/>
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
       <c r="S11" s="25"/>
       <c r="T11" s="25"/>
       <c r="U11" s="25"/>
@@ -1713,7 +1726,7 @@
       <c r="BC11" s="8"/>
     </row>
     <row r="12" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A12" s="62"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="23" t="s">
         <v>16</v>
       </c>
@@ -1729,25 +1742,25 @@
       <c r="J12" s="24"/>
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="25"/>
-      <c r="AB12" s="33"/>
-      <c r="AC12" s="33"/>
-      <c r="AD12" s="33"/>
-      <c r="AE12" s="33"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="64"/>
+      <c r="AA12" s="62"/>
+      <c r="AB12" s="64"/>
+      <c r="AC12" s="64"/>
+      <c r="AD12" s="64"/>
+      <c r="AE12" s="64"/>
       <c r="AF12" s="33"/>
       <c r="AG12" s="25"/>
       <c r="AH12" s="25"/>
@@ -1774,7 +1787,7 @@
       <c r="BC12" s="8"/>
     </row>
     <row r="13" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A13" s="62"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="23" t="s">
         <v>17</v>
       </c>
@@ -1790,25 +1803,25 @@
       <c r="J13" s="24"/>
       <c r="K13" s="24"/>
       <c r="L13" s="24"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="33"/>
-      <c r="AB13" s="33"/>
-      <c r="AC13" s="33"/>
-      <c r="AD13" s="33"/>
-      <c r="AE13" s="33"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="62"/>
+      <c r="W13" s="62"/>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="64"/>
+      <c r="AA13" s="64"/>
+      <c r="AB13" s="64"/>
+      <c r="AC13" s="64"/>
+      <c r="AD13" s="64"/>
+      <c r="AE13" s="64"/>
       <c r="AF13" s="33"/>
       <c r="AG13" s="25"/>
       <c r="AH13" s="25"/>
@@ -1839,12 +1852,12 @@
       <c r="B14" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="34" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="29"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
@@ -1856,14 +1869,14 @@
       <c r="O14" s="24"/>
       <c r="P14" s="24"/>
       <c r="Q14" s="24"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
       <c r="T14" s="25"/>
       <c r="U14" s="25"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="36"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
       <c r="Z14" s="33"/>
       <c r="AA14" s="33"/>
       <c r="AB14" s="33"/>
@@ -1871,9 +1884,9 @@
       <c r="AD14" s="33"/>
       <c r="AE14" s="33"/>
       <c r="AF14" s="33"/>
-      <c r="AG14" s="36"/>
-      <c r="AH14" s="36"/>
-      <c r="AI14" s="36"/>
+      <c r="AG14" s="35"/>
+      <c r="AH14" s="35"/>
+      <c r="AI14" s="35"/>
       <c r="AJ14" s="20"/>
       <c r="AK14" s="13"/>
       <c r="AL14" s="13"/>
@@ -1896,7 +1909,7 @@
       <c r="BC14" s="8"/>
     </row>
     <row r="15" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="49" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="23" t="s">
@@ -1904,8 +1917,8 @@
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="29"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -1921,20 +1934,20 @@
       <c r="S15" s="24"/>
       <c r="T15" s="24"/>
       <c r="U15" s="24"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="37"/>
-      <c r="AB15" s="37"/>
-      <c r="AC15" s="37"/>
-      <c r="AD15" s="37"/>
-      <c r="AE15" s="37"/>
-      <c r="AF15" s="37"/>
-      <c r="AG15" s="37"/>
-      <c r="AH15" s="37"/>
-      <c r="AI15" s="37"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="36"/>
+      <c r="AB15" s="36"/>
+      <c r="AC15" s="36"/>
+      <c r="AD15" s="36"/>
+      <c r="AE15" s="36"/>
+      <c r="AF15" s="36"/>
+      <c r="AG15" s="36"/>
+      <c r="AH15" s="36"/>
+      <c r="AI15" s="36"/>
       <c r="AJ15" s="21"/>
       <c r="AK15" s="13"/>
       <c r="AL15" s="13"/>
@@ -1957,7 +1970,7 @@
       <c r="BC15" s="8"/>
     </row>
     <row r="16" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A16" s="53"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="23" t="s">
         <v>22</v>
       </c>
@@ -2018,13 +2031,13 @@
       <c r="BC16" s="8"/>
     </row>
     <row r="17" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="49" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="34" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="29"/>
@@ -2081,7 +2094,7 @@
       <c r="BC17" s="8"/>
     </row>
     <row r="18" spans="1:55" ht="26.4">
-      <c r="A18" s="53"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="23" t="s">
         <v>27</v>
       </c>
@@ -2142,11 +2155,11 @@
       <c r="BC18" s="8"/>
     </row>
     <row r="19" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A19" s="53"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="34" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="22"/>
@@ -2261,17 +2274,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:AI1"/>
+    <mergeCell ref="AJ1:BC1"/>
+    <mergeCell ref="A3:A9"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A10:A14"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:AI1"/>
-    <mergeCell ref="AJ1:BC1"/>
-    <mergeCell ref="A3:A9"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/document/Foreservation_plan.xlsx
+++ b/document/Foreservation_plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_Intern2019\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F345739-3435-4961-ABF6-7BADEB2B07BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB8BFA9-1A96-4BC4-8D27-E8A19D0F297D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -657,17 +657,41 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -680,30 +704,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -923,10 +923,10 @@
   <dimension ref="A1:BC20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V13" sqref="V13"/>
+      <selection pane="bottomRight" activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -939,8 +939,9 @@
     <col min="10" max="10" width="4" customWidth="1"/>
     <col min="11" max="19" width="3.5546875" customWidth="1"/>
     <col min="20" max="20" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="37" width="3.5546875" customWidth="1"/>
-    <col min="38" max="38" width="4" customWidth="1"/>
+    <col min="21" max="21" width="3.5546875" customWidth="1"/>
+    <col min="22" max="37" width="3.5546875" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="4" hidden="1" customWidth="1"/>
     <col min="39" max="44" width="3.5546875" customWidth="1"/>
     <col min="45" max="45" width="4" customWidth="1"/>
     <col min="46" max="51" width="3.5546875" customWidth="1"/>
@@ -949,79 +950,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="23.25" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="59" t="s">
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" s="60"/>
-      <c r="AL1" s="60"/>
-      <c r="AM1" s="60"/>
-      <c r="AN1" s="60"/>
-      <c r="AO1" s="60"/>
-      <c r="AP1" s="60"/>
-      <c r="AQ1" s="60"/>
-      <c r="AR1" s="60"/>
-      <c r="AS1" s="60"/>
-      <c r="AT1" s="60"/>
-      <c r="AU1" s="60"/>
-      <c r="AV1" s="60"/>
-      <c r="AW1" s="60"/>
-      <c r="AX1" s="60"/>
-      <c r="AY1" s="60"/>
-      <c r="AZ1" s="60"/>
-      <c r="BA1" s="60"/>
-      <c r="BB1" s="60"/>
-      <c r="BC1" s="61"/>
+      <c r="AK1" s="57"/>
+      <c r="AL1" s="57"/>
+      <c r="AM1" s="57"/>
+      <c r="AN1" s="57"/>
+      <c r="AO1" s="57"/>
+      <c r="AP1" s="57"/>
+      <c r="AQ1" s="57"/>
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="57"/>
+      <c r="AT1" s="57"/>
+      <c r="AU1" s="57"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="57"/>
+      <c r="AY1" s="57"/>
+      <c r="AZ1" s="57"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="57"/>
+      <c r="BC1" s="58"/>
     </row>
     <row r="2" spans="1:55" ht="21" customHeight="1" thickBot="1">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
       <c r="E2" s="42">
         <v>1</v>
       </c>
@@ -1177,7 +1178,7 @@
       </c>
     </row>
     <row r="3" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="59" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="38" t="s">
@@ -1240,7 +1241,7 @@
       <c r="BC3" s="8"/>
     </row>
     <row r="4" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A4" s="50"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="23" t="s">
         <v>7</v>
       </c>
@@ -1301,7 +1302,7 @@
       <c r="BC4" s="8"/>
     </row>
     <row r="5" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A5" s="50"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="23" t="s">
         <v>9</v>
       </c>
@@ -1362,7 +1363,7 @@
       <c r="BC5" s="8"/>
     </row>
     <row r="6" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A6" s="50"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="23" t="s">
         <v>11</v>
       </c>
@@ -1423,7 +1424,7 @@
       <c r="BC6" s="8"/>
     </row>
     <row r="7" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A7" s="50"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="23" t="s">
         <v>13</v>
       </c>
@@ -1484,7 +1485,7 @@
       <c r="BC7" s="8"/>
     </row>
     <row r="8" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A8" s="50"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="27" t="s">
         <v>30</v>
       </c>
@@ -1545,7 +1546,7 @@
       <c r="BC8" s="8"/>
     </row>
     <row r="9" spans="1:55" ht="26.4">
-      <c r="A9" s="50"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="23" t="s">
         <v>14</v>
       </c>
@@ -1606,8 +1607,8 @@
       <c r="BC9" s="8"/>
     </row>
     <row r="10" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A10" s="55"/>
-      <c r="B10" s="53" t="s">
+      <c r="A10" s="63"/>
+      <c r="B10" s="61" t="s">
         <v>39</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -1667,8 +1668,8 @@
       <c r="BC10" s="8"/>
     </row>
     <row r="11" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A11" s="56"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="64"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="27" t="s">
         <v>38</v>
       </c>
@@ -1726,7 +1727,7 @@
       <c r="BC11" s="8"/>
     </row>
     <row r="12" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A12" s="56"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="23" t="s">
         <v>16</v>
       </c>
@@ -1749,27 +1750,27 @@
       <c r="Q12" s="48"/>
       <c r="R12" s="48"/>
       <c r="S12" s="48"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="63"/>
-      <c r="V12" s="62"/>
-      <c r="W12" s="62"/>
-      <c r="X12" s="62"/>
-      <c r="Y12" s="62"/>
-      <c r="Z12" s="64"/>
-      <c r="AA12" s="62"/>
-      <c r="AB12" s="64"/>
-      <c r="AC12" s="64"/>
-      <c r="AD12" s="64"/>
-      <c r="AE12" s="64"/>
-      <c r="AF12" s="33"/>
-      <c r="AG12" s="25"/>
-      <c r="AH12" s="25"/>
-      <c r="AI12" s="25"/>
-      <c r="AJ12" s="20"/>
-      <c r="AK12" s="10"/>
-      <c r="AL12" s="11"/>
-      <c r="AM12" s="11"/>
-      <c r="AN12" s="11"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="51"/>
+      <c r="AD12" s="51"/>
+      <c r="AE12" s="51"/>
+      <c r="AF12" s="51"/>
+      <c r="AG12" s="51"/>
+      <c r="AH12" s="51"/>
+      <c r="AI12" s="51"/>
+      <c r="AJ12" s="51"/>
+      <c r="AK12" s="51"/>
+      <c r="AL12" s="51"/>
+      <c r="AM12" s="51"/>
+      <c r="AN12" s="51"/>
       <c r="AO12" s="11"/>
       <c r="AP12" s="11"/>
       <c r="AQ12" s="11"/>
@@ -1787,7 +1788,7 @@
       <c r="BC12" s="8"/>
     </row>
     <row r="13" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A13" s="56"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="23" t="s">
         <v>17</v>
       </c>
@@ -1810,27 +1811,27 @@
       <c r="Q13" s="48"/>
       <c r="R13" s="48"/>
       <c r="S13" s="48"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="62"/>
-      <c r="W13" s="62"/>
-      <c r="X13" s="62"/>
-      <c r="Y13" s="62"/>
-      <c r="Z13" s="64"/>
-      <c r="AA13" s="64"/>
-      <c r="AB13" s="64"/>
-      <c r="AC13" s="64"/>
-      <c r="AD13" s="64"/>
-      <c r="AE13" s="64"/>
-      <c r="AF13" s="33"/>
-      <c r="AG13" s="25"/>
-      <c r="AH13" s="25"/>
-      <c r="AI13" s="25"/>
-      <c r="AJ13" s="20"/>
-      <c r="AK13" s="10"/>
-      <c r="AL13" s="11"/>
-      <c r="AM13" s="11"/>
-      <c r="AN13" s="11"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="51"/>
+      <c r="AA13" s="51"/>
+      <c r="AB13" s="51"/>
+      <c r="AC13" s="51"/>
+      <c r="AD13" s="51"/>
+      <c r="AE13" s="51"/>
+      <c r="AF13" s="51"/>
+      <c r="AG13" s="51"/>
+      <c r="AH13" s="51"/>
+      <c r="AI13" s="51"/>
+      <c r="AJ13" s="51"/>
+      <c r="AK13" s="51"/>
+      <c r="AL13" s="51"/>
+      <c r="AM13" s="51"/>
+      <c r="AN13" s="51"/>
       <c r="AO13" s="11"/>
       <c r="AP13" s="11"/>
       <c r="AQ13" s="11"/>
@@ -1848,7 +1849,7 @@
       <c r="BC13" s="8"/>
     </row>
     <row r="14" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A14" s="57"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="23" t="s">
         <v>18</v>
       </c>
@@ -1869,11 +1870,11 @@
       <c r="O14" s="24"/>
       <c r="P14" s="24"/>
       <c r="Q14" s="24"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="35"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
       <c r="W14" s="35"/>
       <c r="X14" s="35"/>
       <c r="Y14" s="35"/>
@@ -1909,7 +1910,7 @@
       <c r="BC14" s="8"/>
     </row>
     <row r="15" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="60" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="23" t="s">
@@ -1970,7 +1971,7 @@
       <c r="BC15" s="8"/>
     </row>
     <row r="16" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A16" s="50"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="23" t="s">
         <v>22</v>
       </c>
@@ -2031,7 +2032,7 @@
       <c r="BC16" s="8"/>
     </row>
     <row r="17" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="60" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="23" t="s">
@@ -2094,7 +2095,7 @@
       <c r="BC17" s="8"/>
     </row>
     <row r="18" spans="1:55" ht="26.4">
-      <c r="A18" s="50"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="23" t="s">
         <v>27</v>
       </c>
@@ -2155,7 +2156,7 @@
       <c r="BC18" s="8"/>
     </row>
     <row r="19" spans="1:55" ht="21.75" customHeight="1">
-      <c r="A19" s="50"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="23" t="s">
         <v>24</v>
       </c>
@@ -2274,17 +2275,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:AI1"/>
-    <mergeCell ref="AJ1:BC1"/>
-    <mergeCell ref="A3:A9"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A10:A14"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:AI1"/>
+    <mergeCell ref="AJ1:BC1"/>
+    <mergeCell ref="A3:A9"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
